--- a/data/income_statement/2digits/total/77_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/77_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>77-Rental and leasing activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>77-Rental and leasing activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2290836.531299999</v>
+        <v>2290836.5313</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>2618466.08244</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3505892.9887</v>
+        <v>3506238.284959999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4248807.473899999</v>
+        <v>4251728.580100001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5559715.860400001</v>
+        <v>5560498.484979999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7354179.45873</v>
+        <v>7359425.35826</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8746207.05115</v>
+        <v>9227557.83371</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11448257.90723</v>
+        <v>11518752.41806</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>15280142.06199</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>20645759.50843</v>
+        <v>20675872.37124</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>22023438.74453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>22179224.90845</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>26862184.781</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2147795.37944</v>
@@ -995,37 +906,42 @@
         <v>2370331.03238</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3254509.35761</v>
+        <v>3254854.653870001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3937017.564139999</v>
+        <v>3939938.67034</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5084832.766840002</v>
+        <v>5085550.95081</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>6803280.008820001</v>
+        <v>6808432.231</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7862039.97123</v>
+        <v>8332734.699670001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10498624.84036</v>
+        <v>10568422.78049</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>13861191.88157</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18848986.5073</v>
+        <v>18873521.40065</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20214011.28179999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20362149.70237</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>24875642.148</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>54615.57433</v>
@@ -1037,7 +953,7 @@
         <v>72498.07865000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>86801.58565999998</v>
+        <v>86801.58566</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>164025.45706</v>
@@ -1046,7 +962,7 @@
         <v>125742.50285</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>206940.88555</v>
+        <v>211574.4003800001</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>219604.57242</v>
@@ -1055,19 +971,24 @@
         <v>329818.21326</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1009510.56207</v>
+        <v>1014537.25096</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>954102.2090800002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>958970.3477</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>870099.863</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>88425.57753000001</v>
+        <v>88425.57753</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>203125.39241</v>
@@ -1079,34 +1000,39 @@
         <v>224988.3241</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>310857.6365</v>
+        <v>310922.07711</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>425156.9470600001</v>
+        <v>425250.62441</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>677226.19437</v>
+        <v>683248.7336599999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>730028.4944499998</v>
+        <v>730725.0651499999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1089131.96716</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>787262.43906</v>
+        <v>787813.7196299999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>855325.2536500001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>858104.8583800001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1116442.77</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>18235.96399</v>
+        <v>18235.96398999999</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>23931.32081</v>
@@ -1121,28 +1047,33 @@
         <v>32328.43943</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>50301.75231999999</v>
+        <v>50301.75232</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>72557.18915999999</v>
+        <v>74724.83645</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>78147.46627</v>
+        <v>80253.59292</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>133301.39367</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>261747.58164</v>
+        <v>262035.52896</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>286249.81262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>286777.3757</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>462091.743</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>14579.54118</v>
@@ -1157,31 +1088,36 @@
         <v>28117.99581</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>27430.91094999999</v>
+        <v>27430.91095</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>46568.49647</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>65007.64585</v>
+        <v>67175.29313999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>73357.36642000001</v>
+        <v>74853.78478999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>116600.72555</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>216402.99399</v>
+        <v>216690.94131</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>235447.22015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>235903.04296</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>335060.923</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1300.16208</v>
@@ -1205,7 +1141,7 @@
         <v>6200.87118</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3240.98484</v>
+        <v>3848.04701</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>13540.32541</v>
@@ -1214,28 +1150,33 @@
         <v>19572.51035</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>17028.4851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17096.2266</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>35251.523</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2356.26073</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>916.7324299999999</v>
+        <v>916.73243</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>211.07721</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>802.47991</v>
+        <v>802.4799099999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>908.0624499999999</v>
+        <v>908.0624500000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1093.98998</v>
@@ -1244,7 +1185,7 @@
         <v>1348.67213</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1549.11501</v>
+        <v>1551.76112</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>3160.34271</v>
@@ -1253,52 +1194,62 @@
         <v>25772.0773</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>33774.10737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>33778.10614</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>91779.29700000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2272600.56731</v>
+        <v>2272600.567309999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>2594534.76163</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3480273.463710001</v>
+        <v>3480618.759970001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4218011.05738</v>
+        <v>4220932.163579999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5527387.420970001</v>
+        <v>5528170.04555</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7303877.70641</v>
+        <v>7309123.605939999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8673649.861989999</v>
+        <v>9152832.997260002</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11370110.44096</v>
+        <v>11438498.82514</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>15146840.66832</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20384011.92679001</v>
+        <v>20413836.84228</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>21737188.93191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21892447.53275</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>26400093.038</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1644436.87181</v>
@@ -1307,37 +1258,42 @@
         <v>2103914.27325</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2493185.59379</v>
+        <v>2493483.04972</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3332285.9823</v>
+        <v>3334748.99483</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4077807.39261</v>
+        <v>4078521.6258</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6164262.72476</v>
+        <v>6170885.095919999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6809121.063149999</v>
+        <v>7223651.465989999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9060290.68619</v>
+        <v>9081924.136219999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11866542.96401</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>15175645.73749</v>
+        <v>15202501.42589</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>16365799.19052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16497892.14594</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21919245.897</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>20980.28146</v>
@@ -1349,10 +1305,10 @@
         <v>30980.21671</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>44428.96901</v>
+        <v>44428.96901000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>55676.84879</v>
+        <v>55676.84878999999</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>37121.16148</v>
@@ -1361,61 +1317,71 @@
         <v>36153.49176999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>83015.53723</v>
+        <v>83015.56873</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>55586.6107</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>113067.67258</v>
+        <v>116953.03634</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>211315.95932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>223761.76738</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>186759.189</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>342374.0887199999</v>
+        <v>342374.08872</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>406990.06879</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>590251.7606800001</v>
+        <v>590321.09581</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>741831.7835700001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>841873.8381599999</v>
+        <v>841873.83816</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1213826.2935</v>
+        <v>1214338.15279</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1411874.6498</v>
+        <v>1413119.20834</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2009635.19834</v>
+        <v>2010960.62235</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2965954.36979</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3444530.97246</v>
+        <v>3453449.48131</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3901310.551700001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3957687.01879</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6267016.905</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1262986.79756</v>
@@ -1424,37 +1390,42 @@
         <v>1622735.19441</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1788925.15377</v>
+        <v>1789153.27457</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2376863.96448</v>
+        <v>2379326.97701</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2901990.13827</v>
+        <v>2902704.37146</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4407536.75477</v>
+        <v>4413623.427139999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4877939.424939999</v>
+        <v>4921875.14997</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5919364.51023</v>
+        <v>5939672.50475</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7670482.61633</v>
+        <v>7670482.616330001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9917524.889359998</v>
+        <v>9931346.336410001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11318872.058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11379054.03141</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>14201198.017</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>18095.70407</v>
@@ -1472,10 +1443,10 @@
         <v>278266.56739</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>505778.51501</v>
+        <v>505802.35451</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>483153.49664</v>
+        <v>852503.6159099999</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1048275.44039</v>
@@ -1484,94 +1455,109 @@
         <v>1174519.36719</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1700522.20309</v>
+        <v>1700752.57183</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>934300.6215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>937389.3283599999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1264271.786</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>628163.6955</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>490620.48838</v>
+        <v>490620.4883800001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>987087.86992</v>
+        <v>987135.7102499998</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>885725.0750800002</v>
+        <v>886183.16875</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1449580.02836</v>
+        <v>1449648.41975</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1139614.98165</v>
+        <v>1138238.51002</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1864528.79884</v>
+        <v>1929181.53127</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2309819.75477</v>
+        <v>2356574.68892</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3280297.70431</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5208366.189299999</v>
+        <v>5211335.416389999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5371389.741389999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5394555.386809999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4480847.141</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>407443.9592099999</v>
+        <v>407443.95921</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>506847.13742</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>605456.5416299999</v>
+        <v>605509.1727500001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>749156.4174499999</v>
+        <v>749543.9337399999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>936245.6551499999</v>
+        <v>936896.8521999998</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1216210.02975</v>
+        <v>1217398.84641</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1486713.7735</v>
+        <v>1526891.91746</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1820427.33112</v>
+        <v>1864821.88409</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2183067.92973</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2885540.042059999</v>
+        <v>2891426.01563</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3012687.64208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3037660.49944</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3377167.985</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>167.57146</v>
@@ -1601,19 +1587,24 @@
         <v>1610.71208</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2750.48687</v>
+        <v>2754.69095</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1949.95684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2046.29509</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3292.152</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>69808.95285999999</v>
+        <v>69808.95286</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>100680.14454</v>
@@ -1628,67 +1619,77 @@
         <v>215940.38799</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>328116.61775</v>
+        <v>328436.68064</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>396191.6911099999</v>
+        <v>416274.1012100001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>489148.17626</v>
+        <v>521593.86579</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>657726.7567500002</v>
+        <v>657726.7567499999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>901342.0192599999</v>
+        <v>902597.7902899999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>812786.88608</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>817218.55396</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>863213.715</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>337467.43489</v>
+        <v>337467.4348899999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>406086.1991999999</v>
+        <v>406086.1992</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>475968.8766199999</v>
+        <v>476021.5077400001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>575318.1100099998</v>
+        <v>575705.6263</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>719184.5780100001</v>
+        <v>719835.7750599999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>885269.0592899999</v>
+        <v>886137.81306</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1089009.62503</v>
+        <v>1109105.35889</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1330913.75949</v>
+        <v>1342862.62293</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1523730.4609</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1981447.53593</v>
+        <v>1986073.53439</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2197950.79916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2218395.65039</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2510662.118</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>220719.73629</v>
@@ -1697,82 +1698,92 @@
         <v>-16226.64904</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>381631.32829</v>
+        <v>381626.5375</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>136568.65763</v>
+        <v>136639.23501</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>513334.3732099999</v>
+        <v>512751.56755</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-76595.04810000004</v>
+        <v>-79160.33638999998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>377815.02534</v>
+        <v>402289.61381</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>489392.42365</v>
+        <v>491752.80483</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1097229.77458</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2322826.14724</v>
+        <v>2319909.40076</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2358702.09931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2356894.887370001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1103679.156</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>538640.3910599999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>478730.1171</v>
+        <v>478730.1171000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>531440.68093</v>
+        <v>531440.6809299999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>656348.1054900001</v>
+        <v>656348.10549</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>833247.61624</v>
+        <v>833260.3150200001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1383497.20118</v>
+        <v>1383524.40985</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2092772.07468</v>
+        <v>2117536.02278</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1730971.97415</v>
+        <v>1732572.04843</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3496214.317770001</v>
+        <v>3496214.31777</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9158820.753770001</v>
+        <v>9158842.51819</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6460516.862229999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6463565.45414</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5388633.563</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>26244.56609</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>5923.91169</v>
+        <v>5923.911690000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>749.47163</v>
@@ -1787,7 +1798,7 @@
         <v>28205.10927</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6149.56995</v>
+        <v>6149.569949999999</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>14792.1103</v>
@@ -1796,16 +1807,21 @@
         <v>20139.59526</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>56484.71881</v>
+        <v>56484.71881000001</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>37518.18568</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>53063.77</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>624.5472000000001</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>19107.45954</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>13842.049</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>17653.68237</v>
@@ -1859,16 +1880,16 @@
         <v>27085.78423</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>26752.76239</v>
+        <v>26760.59225000001</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>43058.16546</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>64615.44681</v>
+        <v>65164.63375</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>79396.57301000001</v>
+        <v>79531.26618999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>117119.77696</v>
@@ -1877,19 +1898,24 @@
         <v>275649.18673</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>308627.8466399999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>308830.80395</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>387017.183</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3341.98991</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7080.33303</v>
+        <v>7080.333030000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>8611.748030000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2673.34939</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3064.212</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>5710.37387</v>
@@ -1940,10 +1971,10 @@
         <v>5938.032429999998</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4757.89172</v>
+        <v>4757.891720000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7015.12503</v>
+        <v>7015.125029999999</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>8548.744269999999</v>
@@ -1955,76 +1986,86 @@
         <v>17517.10309</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>59910.22121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>60306.22121</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>104045.606</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>366.67076</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>680.6999400000001</v>
+        <v>680.69994</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>997.67975</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>592.0220999999999</v>
+        <v>592.0221</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>618.2148300000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7127.007570000002</v>
+        <v>7127.007570000001</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>4055.55286</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>10595.16583</v>
+        <v>10594.77633</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>18725.58947</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>57706.41246999999</v>
+        <v>57706.41247</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>14520.31998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>14577.04934</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>21016.193</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>394889.3922</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>336347.67341</v>
+        <v>336347.6734100001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>334255.53638</v>
+        <v>334255.5363799999</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>416203.4411200001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>530018.6597500001</v>
+        <v>530019.11597</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>841965.66049</v>
+        <v>841975.03711</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1420698.37758</v>
+        <v>1438697.08056</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>822641.7191099999</v>
+        <v>823897.6401600001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2342921.3934</v>
@@ -2033,13 +2074,18 @@
         <v>7338531.410270001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4947612.639300002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4949636.54955</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2787533.528</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.5</v>
@@ -2060,7 +2106,7 @@
         <v>522.0934999999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>399.0725400000001</v>
+        <v>399.07254</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>21.67519</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1798.21304</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>17.942</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.56717</v>
@@ -2093,7 +2144,7 @@
         <v>69.29992</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>154.78683</v>
+        <v>278.97948</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>125.57967</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>5613.632860000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>117.687</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>89795.10149</v>
@@ -2132,70 +2188,80 @@
         <v>183258.70902</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>225490.68451</v>
+        <v>225370.90456</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>443208.9927</v>
+        <v>443226.82475</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>577007.4781299998</v>
+        <v>583223.53631</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>770840.44275</v>
+        <v>771050.2923</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>958605.16426</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1400083.99102</v>
+        <v>1400105.75544</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1063134.99459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1063503.98958</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2018915.393</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>532129.9306699999</v>
+        <v>532129.93067</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>357517.46456</v>
+        <v>357517.4645599999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>725271.59105</v>
+        <v>725271.59116</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>409698.81893</v>
+        <v>409698.81894</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1075342.39623</v>
+        <v>1075368.75453</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>867665.14925</v>
+        <v>867721.07887</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2013102.29376</v>
+        <v>2056202.018150001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1861128.524849999</v>
+        <v>1862423.28639</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3919243.96168</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>10727577.86045</v>
+        <v>10727974.11749</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6785226.890029999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6789825.120370002</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4670272.034</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1762.07508</v>
@@ -2204,22 +2270,22 @@
         <v>1897.26419</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7354.98256</v>
+        <v>7354.982559999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>12143.56695</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>4179.65627</v>
+        <v>4179.656269999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4342.95689</v>
+        <v>4342.956889999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8091.23537</v>
+        <v>8797.34274</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10435.81231</v>
+        <v>10438.22839</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>18555.22793</v>
@@ -2228,19 +2294,24 @@
         <v>18005.04194</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>25711.47328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>25722.9056</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19857.801</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19568.13846</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9780.655490000003</v>
+        <v>9780.655489999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>5969.6455</v>
@@ -2255,25 +2326,30 @@
         <v>21660.76144</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>30611.43729</v>
+        <v>30671.43728999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>40688.6763</v>
+        <v>40688.67630000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>51409.9963</v>
+        <v>51409.99630000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>99162.43094000001</v>
+        <v>99490.43635</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>143157.56542</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>143969.82142</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>135655.074</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>344.58582</v>
@@ -2282,22 +2358,22 @@
         <v>529.76194</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2600.516</v>
+        <v>2600.516000000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>549.9618400000001</v>
+        <v>549.9618399999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>488.9109100000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>709.4861399999999</v>
+        <v>709.48614</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2435.85319</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>10582.45916</v>
+        <v>10583.85806</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>29260.3047</v>
@@ -2306,13 +2382,18 @@
         <v>13492.45375</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1431.52482</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1442.84662</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2239.443</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>421509.66357</v>
@@ -2324,19 +2405,19 @@
         <v>601568.20107</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>299505.9156300001</v>
+        <v>299505.91563</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>945612.19546</v>
+        <v>945613.80246</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>639420.31784</v>
+        <v>639421.5827200001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1760893.92493</v>
+        <v>1783211.47763</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1455724.75293</v>
+        <v>1456911.06802</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3420173.85513</v>
@@ -2345,13 +2426,18 @@
         <v>9947185.082690001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5661545.185090002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5665551.451250001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4047038.537</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.62997</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3.37343</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1824.021</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>23.48186</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>88942.83777</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>84352.0307</v>
+        <v>84352.03069999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>107778.24592</v>
+        <v>107778.24603</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>79349.03222999998</v>
+        <v>79349.03224</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>106510.26506</v>
+        <v>106535.01636</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>200596.43344</v>
+        <v>200651.09818</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>210832.46774</v>
+        <v>230848.53206</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>343588.8623399999</v>
+        <v>343693.49381</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>399724.9577599999</v>
+        <v>399724.9577600001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>649707.21237</v>
+        <v>649775.4639999998</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>953354.2861300003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>953111.24019</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>463657.152</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>226170.35464</v>
@@ -2477,37 +2578,42 @@
         <v>214075.99644</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>343604.5476499999</v>
+        <v>343605.6502800001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>316003.0829</v>
+        <v>316019.76921</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>475565.55664</v>
+        <v>475582.28509</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>572771.2541200002</v>
+        <v>573311.90731</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>821115.87887</v>
+        <v>830892.6349799999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>971595.19479</v>
+        <v>977231.94872</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1628784.07252</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2346795.53126</v>
+        <v>2346958.33382</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2942570.25924</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2952121.22085</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2888011.618</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>214459.81539</v>
@@ -2516,37 +2622,42 @@
         <v>196996.70757</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>303840.8091599999</v>
+        <v>303841.91179</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>274216.12236</v>
+        <v>274232.80867</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>412284.12197</v>
+        <v>412300.85042</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>508969.03905</v>
+        <v>509509.6922399999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>737006.4671900002</v>
+        <v>746783.2233000001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>887062.82868</v>
+        <v>892699.5826099999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1504749.47846</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1973873.18459</v>
+        <v>1974035.98715</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2649924.23862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2656830.61589</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2557095.27</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>11710.53925</v>
@@ -2558,7 +2669,7 @@
         <v>39763.73849</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>41786.96053999999</v>
+        <v>41786.96054</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>63281.43467</v>
@@ -2579,91 +2690,106 @@
         <v>372922.3466699999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>292646.02062</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>295290.60496</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>330916.348</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1059.84204</v>
+        <v>1059.842039999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-109089.99294</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-155804.12948</v>
+        <v>-155810.02301</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>67214.86128999999</v>
+        <v>67268.75235</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-204325.96342</v>
+        <v>-204939.15705</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-133534.25029</v>
+        <v>-136668.91272</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-363631.07261</v>
+        <v>-367269.01654</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-612359.3218399999</v>
+        <v>-615330.3818499999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-954583.9418499999</v>
+        <v>-954583.9418500001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1592726.4907</v>
+        <v>-1596180.53236</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-908578.18773</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-921485.9997099998</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1065970.933</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>84918.59184000002</v>
+        <v>84918.59184000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>106172.50013</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>195485.30614</v>
+        <v>195510.98495</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>205104.23161</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>349247.3271499999</v>
+        <v>349294.0543900001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>467006.7929200001</v>
+        <v>468191.6054299999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>518647.88207</v>
+        <v>527918.5785299999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>628173.7392600001</v>
+        <v>628917.60015</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>927426.4110400002</v>
+        <v>927426.4110399998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1198660.41776</v>
+        <v>1198728.47595</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1207671.35336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1213453.78707</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1738750.408</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1951.4556</v>
@@ -2684,25 +2810,30 @@
         <v>2861.26337</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2370.54729</v>
+        <v>2605.19131</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>21538.90789</v>
+        <v>21575.19955</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7251.06364</v>
+        <v>7251.063639999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4764.16979</v>
+        <v>4765.50279</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>11292.74579</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>17755.784</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>82967.13623999999</v>
@@ -2711,76 +2842,86 @@
         <v>104744.05952</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>171829.33979</v>
+        <v>171855.0186</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>203670.91872</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>347945.66529</v>
+        <v>347992.39253</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>464145.52955</v>
+        <v>465330.3420600001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>516277.33478</v>
+        <v>525313.3872199999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>606634.8313700003</v>
+        <v>607342.4006000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>920175.3474</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1193896.24797</v>
+        <v>1193962.97316</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1196378.60757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1202161.04128</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1720994.624</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>67349.40340000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>88913.62586000001</v>
+        <v>88913.62585999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>155358.0836</v>
+        <v>155419.88664</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>73907.70031999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>97998.67025</v>
+        <v>98575.80202999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>156212.80607</v>
+        <v>157508.04891</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>148047.74838</v>
+        <v>148943.44376</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>212196.0143</v>
+        <v>222306.35905</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>289569.39121</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>487311.26667</v>
+        <v>487354.9554</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>535559.6154799999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>538785.2552900001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>356160.28</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>870.73706</v>
@@ -2795,10 +2936,10 @@
         <v>2612.9876</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>705.2785699999999</v>
+        <v>1202.11621</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7798.341699999999</v>
+        <v>7798.3417</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>519.13818</v>
@@ -2810,16 +2951,21 @@
         <v>873.45865</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2646.255069999999</v>
+        <v>2646.25507</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1867.28968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1892.28968</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10192.587</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2835.63065</v>
@@ -2834,109 +2980,124 @@
         <v>2543.90704</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2406.4835</v>
+        <v>2430.61781</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3129.021299999999</v>
+        <v>3133.493</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5450.711659999999</v>
+        <v>5472.89819</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8474.323390000001</v>
+        <v>8727.20146</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7536.505440000002</v>
+        <v>7536.505440000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5148.260730000001</v>
+        <v>5150.74045</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8767.569290000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8817.25425</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>19728.686</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>63643.03569</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>87417.63847999999</v>
+        <v>87417.63848000002</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>148297.77949</v>
+        <v>148359.58253</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>68750.80567999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>94886.90818000001</v>
+        <v>94943.06800999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>145285.44307</v>
+        <v>146576.21421</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>142077.89854</v>
+        <v>142951.40739</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>197359.69634</v>
+        <v>207217.16302</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>281159.4271200001</v>
+        <v>281159.42712</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>479516.7508699999</v>
+        <v>479557.95988</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>524924.7565100001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>528075.71136</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>326239.007</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>18629.03047999999</v>
+        <v>18629.03048</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-91831.11867</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-115676.90694</v>
+        <v>-115718.9247</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>198411.39258</v>
+        <v>198465.28364</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>46922.69347999999</v>
+        <v>45779.09530999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>177259.73656</v>
+        <v>174014.6438</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6969.061080000003</v>
+        <v>11706.11822999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-196381.59688</v>
+        <v>-208719.14075</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-316726.92202</v>
+        <v>-316726.9220199999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-881377.3396099998</v>
+        <v>-884807.0118099999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-236466.44985</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-246817.46793</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>316619.195</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>11439.96596</v>
@@ -2945,73 +3106,81 @@
         <v>12051.01591</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>24984.59177</v>
+        <v>24988.17445</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>21199.72662999999</v>
+        <v>21210.50707</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>30614.75543</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>39719.50543</v>
+        <v>39721.34836999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>59636.37942</v>
+        <v>60429.30009999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>48745.74084000001</v>
+        <v>48810.08096000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>56783.84838</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>109868.94674</v>
+        <v>109931.81513</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>179491.24554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>180182.08745</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>197357.722</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7189.064519999999</v>
+        <v>7189.06452</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-103882.13458</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-140661.49871</v>
+        <v>-140707.09915</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>177211.6659500001</v>
+        <v>177254.77657</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>16307.93805</v>
+        <v>15164.33988</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>137540.23113</v>
+        <v>134293.29543</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-52667.31834000001</v>
+        <v>-48723.18187</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-245127.33772</v>
+        <v>-257529.22171</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-373510.7704</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-991246.2863500001</v>
+        <v>-994738.8269399998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-415957.6953900001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-426999.5553800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>119261.473</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1908</v>
@@ -3038,34 +3210,37 @@
         <v>2049</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2628</v>
+        <v>2635</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2892</v>
+        <v>2907</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3059</v>
+        <v>3092</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3210</v>
+        <v>3235</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>3569</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3862</v>
+        <v>4019</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4558</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>